--- a/Tables/Sources/gameplay/Character/CharacterConfig.xlsx
+++ b/Tables/Sources/gameplay/Character/CharacterConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="30850" windowHeight="12110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>Value</t>
   </si>
@@ -31,6 +28,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Quality</t>
@@ -233,9 +233,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -266,6 +266,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -274,13 +344,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -288,21 +351,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +366,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -332,30 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -363,52 +403,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -431,43 +431,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,133 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,6 +755,15 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,11 +794,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,23 +827,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,25 +856,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,133 +874,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1412,212 +1412,284 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.7272727272727" style="19" customWidth="1"/>
-    <col min="2" max="2" width="23.8181818181818" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="19"/>
+    <col min="1" max="2" width="11.7272727272727" style="19" customWidth="1"/>
+    <col min="3" max="3" width="23.8181818181818" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="13.5" spans="1:2">
+    <row r="1" s="18" customFormat="1" ht="13.5" spans="1:3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="18" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" s="18" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="18" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" s="18" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="B7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="19">
         <v>4</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="C9" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="19">
+        <v>6</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="19">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
+      <c r="B11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C11" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="19" t="s">
+      <c r="B12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C12" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="19" t="s">
+      <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C13" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C14" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="19">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="B15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="19">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="B16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="19">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="B17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="19">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="B18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="B19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="19">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="19" t="s">
+      <c r="B20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="19">
         <v>17</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="19">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="B22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="19">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="B23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="19">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Character/CharacterConfig.xlsx
+++ b/Tables/Sources/gameplay/Character/CharacterConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3229F35B-4B3C-4307-A638-804DB41EB082}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD1C4D9-6F9C-4244-851E-41AD51113BFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,15 +18,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
-  <si>
-    <t>Value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
   <si>
     <t>A</t>
   </si>
@@ -46,68 +43,300 @@
     <t>Normal</t>
   </si>
   <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Head</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Body</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Good</t>
-  </si>
-  <si>
-    <t>Perfect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uper</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>此人经脉堵塞，真气难通，但因其身体壮实，勉强能习得一些外功拳脚。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人反应迟钝，所有的攻击都难以躲开，因此总是遍体鳞伤，大部分时间都在养伤。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人心浮气躁，浅尝辄止，难以在武学上下苦工，只能修行简单的拳脚功夫。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人慈悲心肠，无论敌我都难以下痛下杀手，往往点到为止，不免被有心之人利用。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为亡国公主，为当朝所不容，走投无路投身江湖，但仍不断遭受追查。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人过度关注自己的容貌，就算在练功时也不愿惊起烟尘弄脏衣服，难成大器。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为前朝公主的丫鬟，因目不识丁才识驽钝才被招揽，收入门中需要先进行基础教育。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人貌若天仙，身边总是会跟随一帮粉丝，人数众多，影响门派的正常活动。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人会一些基本拳脚，却有些疯癫，念叨自己是武神转世，难以正常交流。</t>
+  </si>
+  <si>
+    <t>此人过目不忘，看过一遍的招式就能学会，但体弱多病，拳脚无力，真气聚九存一。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人上有八十岁老母，下有三岁小儿，时常需要种田养家，不能坚持练功。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人带艺在身，路数不明，拜在门下虽可省去锤炼基础之功，但恐有异心，望少侠斟酌。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人原是福远镖局的少当家，运镖不利被人灭门，后有追兵，逃窜至此。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为阳年阳月阳日出生的纯阳血脉，体内烈火焚烧，若无灵丹妙药，恐血气枯竭。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人貌似潘安，身边总是会跟随一帮粉丝，人数众多，影响门派的正常活动。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人食欲旺盛，已有三个门派被他吃至倒闭，请掌门三思。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为前朝公主的侍卫，因目不识丁才识驽钝才被招揽，收入门中需要先进行基础教育。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为流落民间的公主，受大内暗中保护，收留她可能会带来皇家的友谊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为阴年阴月阴时出生的玄阴血脉，体内寒霜郁结，若无灵丹妙药，恐血气凝固。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为阴年阴月阴时出生的玄阴血脉，但有灵符护体，驱散寒气，增长功力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为武神转世，一旦开窍则天地惊、鬼神泣，当世无人是其敌手。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>此人资质较差，学习缓慢，但性格坚毅，假以时日，想来能在武道上一往无前。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人反应迟钝，所有的攻击都难以躲开，也因此不会被外界干扰，可以勉强修炼内功。</t>
-  </si>
-  <si>
-    <t>此人心浮气躁，浅尝辄止，难以在武学上下苦工，只能修行简单的拳脚功夫。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人慈悲心肠，无论敌我都难以下痛下杀手，往往点到为止，不免被有心之人利用。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人原为秀坊的宫女，精通绣艺，既可银针防身，亦可织锦营生。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>此人真气浑厚，有小十年之功，但这些真气实非同源，郁结纠缠，有走火入魔的风险。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>此人身体轻盈，修习轻功如鱼得水，同时也因此难以对敌人造成实质性的伤害。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人过度关注自己的容貌，为了不弄脏衣服，练就一身神奇的身法，举手投足不起烟尘。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人来路不明，武功全无，似乎是朝廷的暗子，祸藏异心，望少侠斟酌。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为阳年阳月阳日出生的纯阳血脉，但有灵符护体，驱散炎气，增长功力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人貌若天仙，身边总是会跟随一帮粉丝，但粉丝俨然有序，还有秘籍赠予门派。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人貌似潘安，身边总是会跟随一帮粉丝，但粉丝俨然有序，还有秘籍赠予门派。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人原为禁军，精通枪术，但囿于身份不能公开施展。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>此人家财万贯，虽然天赋平平，但可以为门派带来不小的收入。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人机缘巧合得一身浑厚内力，只要稍加教导便能收放自如，成为高手。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人慈悲心肠，无论敌我都能感化，让其收起争斗之心，举手投足间有佛光隐现。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人嗜食佳肴，家中贫困不能灶火，只好练习内功加热，练成后想要施展就必须美食相伴。</t>
+  </si>
+  <si>
+    <t>此人为当朝公主，衷情于武学，若能将公主收入门中，天下第一大派指日可待。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为觉醒的玄阴血脉，根骨天赋极佳，若遇上阳极的纯阳血脉，则可同化龙凤。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人貌若天仙，一颦一蹙，众生倾倒，不出手就能打倒一片敌人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人貌若天仙，粉丝遍布神州，一呼百应，门派壮大轻而易举。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>此人骨骼精奇，是万中无一的武学奇才，少侠你捡到宝了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>此人经脉强韧，真气流动如江河奔流，修炼一日抵得百日之功。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人力大无穷，动辄开碑裂石,一身横练功夫，刀枪不入，水火不侵。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人带艺在身，路数不明，拜在门下虽可省去锤炼基础之功，但恐有异心，望少侠斟酌。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人机缘巧合得一身浑厚内力，只要稍加教导便能收放自如，成为高手。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人为武神转世，一旦开窍则天地惊、鬼神泣，当世无人是其敌手。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人过目不忘，看过一遍的招式就能学会，但体弱多病，拳脚无力，真气聚九存一，难成大器。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人家中经营饭庄，家丁时常会送来吃食，与门中众弟子同享，解决了门派的伙食问题。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为觉醒的纯阳血脉，根骨天赋极佳，若遇上阴极的玄阴血脉，则可同化龙凤。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人貌似潘安，粉丝遍布神州，一呼百应，门派壮大轻而易举。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 此人为不世出的武学奇才，仅仅通过练习村中启蒙的健体操，练就了一身绝强内力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人幼时不小心摔通了任督二脉，真气周转，运拳行腿自有风生。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为情所困，郁郁寡欢，遂寄情武学，黯然掌、销魂腿均由其创出。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人嗜枣，久而久之，练出一门口吐暗器的功夫，八百里开外镖无虚发。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人在放羊时，自白猿身上学会了一身神妙剑术，稍加教导，剑可通神。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人苦心锻炼了三年，变秃了，也变强了，自此没有一拳解决不了的事情。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人天生力大无穷，动辄开碑裂石,一身横练功夫，刀枪不入，水火不侵。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人身怀麒麟血脉，额上生角，力大无比，举手投足迅雷猛击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人身怀麒麟血脉，额上生角，有九龙九象之力，但难以自控，时常疯狂，荼毒山河。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人天生力大无穷，但身体过于强壮，行动极慢，难以抵挡矮小敌人的攻击。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人心思粗耿，难以理解繁杂的武技变化，因此一直练习直拳，瞄准一点，登峰造极。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +368,36 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -186,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,6 +454,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -499,228 +767,1197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="106.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.77734375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <f>D5+1</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <f>E5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:D24" si="0">D6+1</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ref="E11:E24" si="1">E6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>22</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2">
+        <f>D25+1</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <f>E25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:D44" si="2">D26+1</f>
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31:E44" si="3">E26</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>35</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>40</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>41</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>44</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>45</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="2">
+        <f>D45+1</f>
+        <v>2</v>
+      </c>
+      <c r="E50" s="2">
+        <f>E45</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>47</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" ref="D51:D64" si="4">D46+1</f>
+        <v>2</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" ref="E51:E64" si="5">E46</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>49</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>50</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>51</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>52</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>53</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>54</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>55</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>56</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>57</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>58</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>59</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>60</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Character/CharacterConfig.xlsx
+++ b/Tables/Sources/gameplay/Character/CharacterConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Character\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD1C4D9-6F9C-4244-851E-41AD51113BFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30250" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,16 +12,34 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
   <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>资质</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>身体编号</t>
+  </si>
+  <si>
+    <t>头编号</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -40,34 +52,36 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Body</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Head</t>
     </r>
     <r>
@@ -76,275 +90,197 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Id</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Body</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Id</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>此人为亡国公主，为当朝所不容，走投无路投身江湖，但仍不断遭受追查。</t>
+  </si>
+  <si>
+    <t>此人为阴年阴月阴时出生的玄阴血脉，体内寒霜郁结，若无灵丹妙药，恐血气凝固。</t>
+  </si>
+  <si>
+    <t>此人过度关注自己的容貌，就算在练功时也不愿惊起烟尘弄脏衣服，难成大器。</t>
+  </si>
+  <si>
+    <t>此人为前朝公主的丫鬟，因目不识丁才识驽钝才被招揽，收入门中需要先进行基础教育。</t>
+  </si>
+  <si>
+    <t>此人貌若天仙，身边总是会跟随一帮粉丝，人数众多，影响门派的正常活动。</t>
+  </si>
+  <si>
+    <t>此人会一些基本拳脚，却有些疯癫，念叨自己是武神转世，难以正常交流。</t>
+  </si>
+  <si>
+    <t>此人过目不忘，看过一遍的招式就能学会，但体弱多病，拳脚无力，真气聚九存一。</t>
+  </si>
+  <si>
+    <t>此人上有八十岁老母，下有三岁小儿，时常需要种田养家，不能坚持练功。</t>
+  </si>
+  <si>
+    <t>此人心浮气躁，浅尝辄止，难以在武学上下苦工，只能修行简单的拳脚功夫。</t>
+  </si>
+  <si>
+    <t>此人来路不明，武功全无，似乎是朝廷的暗子，祸藏异心，望少侠斟酌。</t>
+  </si>
+  <si>
+    <t>此人原是福远镖局的少当家，运镖不利被人灭门，后有追兵，逃窜至此。</t>
+  </si>
+  <si>
+    <t>此人为阳年阳月阳日出生的纯阳血脉，体内烈火焚烧，若无灵丹妙药，恐血气枯竭。</t>
+  </si>
+  <si>
+    <t>此人貌似潘安，身边总是会跟随一帮粉丝，人数众多，影响门派的正常活动。</t>
+  </si>
+  <si>
+    <t>此人食欲旺盛，已有三个门派被他吃至倒闭，请掌门三思。</t>
+  </si>
+  <si>
+    <t>此人为前朝公主的侍卫，因目不识丁才识驽钝才被招揽，收入门中需要先进行基础教育。</t>
+  </si>
+  <si>
+    <t>此人慈悲心肠，无论敌我都难以下痛下杀手，往往点到为止，不免被有心之人利用。</t>
+  </si>
+  <si>
+    <t>此人反应迟钝，所有的攻击都难以躲开，因此总是遍体鳞伤，大部分时间都在养伤。</t>
+  </si>
+  <si>
+    <t>此人经脉堵塞，真气难通，但因其身体壮实，勉强能习得一些外功拳脚。</t>
   </si>
   <si>
     <t>Good</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uper</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人经脉堵塞，真气难通，但因其身体壮实，勉强能习得一些外功拳脚。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人反应迟钝，所有的攻击都难以躲开，因此总是遍体鳞伤，大部分时间都在养伤。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人心浮气躁，浅尝辄止，难以在武学上下苦工，只能修行简单的拳脚功夫。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人慈悲心肠，无论敌我都难以下痛下杀手，往往点到为止，不免被有心之人利用。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人为亡国公主，为当朝所不容，走投无路投身江湖，但仍不断遭受追查。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人过度关注自己的容貌，就算在练功时也不愿惊起烟尘弄脏衣服，难成大器。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人为前朝公主的丫鬟，因目不识丁才识驽钝才被招揽，收入门中需要先进行基础教育。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人貌若天仙，身边总是会跟随一帮粉丝，人数众多，影响门派的正常活动。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人会一些基本拳脚，却有些疯癫，念叨自己是武神转世，难以正常交流。</t>
-  </si>
-  <si>
-    <t>此人过目不忘，看过一遍的招式就能学会，但体弱多病，拳脚无力，真气聚九存一。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人上有八十岁老母，下有三岁小儿，时常需要种田养家，不能坚持练功。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为流落民间的公主，受大内暗中保护，收留她可能会带来皇家的友谊。</t>
+  </si>
+  <si>
+    <t>此人为阴年阴月阴时出生的玄阴血脉，但有灵符护体，驱散寒气，增长功力。</t>
+  </si>
+  <si>
+    <t>此人过度关注自己的容貌，为了不弄脏衣服，练就一身神奇的身法，举手投足不起烟尘。</t>
+  </si>
+  <si>
+    <t>此人原为秀坊的宫女，精通绣艺，既可银针防身，亦可织锦营生。</t>
+  </si>
+  <si>
+    <t>此人貌若天仙，身边总是会跟随一帮粉丝，但粉丝俨然有序，还有秘籍赠予门派。</t>
+  </si>
+  <si>
+    <t>此人真气浑厚，有小十年之功，但这些真气实非同源，郁结纠缠，有走火入魔的风险。</t>
+  </si>
+  <si>
+    <t>此人身体轻盈，修习轻功如鱼得水，同时也因此难以对敌人造成实质性的伤害。</t>
+  </si>
+  <si>
+    <t>此人家中经营饭庄，家丁时常会送来吃食，与门中众弟子同享，解决了门派的伙食问题。</t>
+  </si>
+  <si>
+    <t>此人资质较差，学习缓慢，但性格坚毅，假以时日，想来能在武道上一往无前。</t>
   </si>
   <si>
     <t>此人带艺在身，路数不明，拜在门下虽可省去锤炼基础之功，但恐有异心，望少侠斟酌。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人原是福远镖局的少当家，运镖不利被人灭门，后有追兵，逃窜至此。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人为阳年阳月阳日出生的纯阳血脉，体内烈火焚烧，若无灵丹妙药，恐血气枯竭。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人貌似潘安，身边总是会跟随一帮粉丝，人数众多，影响门派的正常活动。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人食欲旺盛，已有三个门派被他吃至倒闭，请掌门三思。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人为前朝公主的侍卫，因目不识丁才识驽钝才被招揽，收入门中需要先进行基础教育。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人为流落民间的公主，受大内暗中保护，收留她可能会带来皇家的友谊。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人为阴年阴月阴时出生的玄阴血脉，体内寒霜郁结，若无灵丹妙药，恐血气凝固。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人为阴年阴月阴时出生的玄阴血脉，但有灵符护体，驱散寒气，增长功力。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人家财万贯，虽然天赋平平，但可以为门派带来不小的收入。</t>
+  </si>
+  <si>
+    <t>此人心思粗耿，难以理解繁杂的武技变化，因此一直练习直拳，瞄准一点，登峰造极。</t>
+  </si>
+  <si>
+    <t>此人为阳年阳月阳日出生的纯阳血脉，但有灵符护体，驱散炎气，增长功力。</t>
+  </si>
+  <si>
+    <t>此人貌似潘安，身边总是会跟随一帮粉丝，但粉丝俨然有序，还有秘籍赠予门派。</t>
+  </si>
+  <si>
+    <t>此人嗜食佳肴，家中贫困不能灶火，只好练习内功加热，练成后想要施展就必须美食相伴。</t>
+  </si>
+  <si>
+    <t>此人原为禁军，精通枪术，但囿于身份不能公开施展。</t>
+  </si>
+  <si>
+    <t>此人慈悲心肠，无论敌我都能感化，让其收起争斗之心，举手投足间有佛光隐现。</t>
+  </si>
+  <si>
+    <t>此人身怀麒麟血脉，额上生角，有九龙九象之力，但难以自控，时常疯狂，荼毒山河。</t>
+  </si>
+  <si>
+    <t>此人天生力大无穷，但身体过于强壮，行动极慢，难以抵挡矮小敌人的攻击。</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>此人为当朝公主，衷情于武学，若能将公主收入门中，天下第一大派指日可待。</t>
+  </si>
+  <si>
+    <t>此人为觉醒的玄阴血脉，根骨天赋极佳，若遇上阳极的纯阳血脉，则可同化龙凤。</t>
+  </si>
+  <si>
+    <t>此人貌若天仙，一颦一蹙，众生倾倒，不出手就能打倒一片敌人。</t>
+  </si>
+  <si>
+    <t>此人在放羊时，自白猿身上学会了一身神妙剑术，稍加教导，剑可通神。</t>
+  </si>
+  <si>
+    <t>此人貌若天仙，粉丝遍布神州，一呼百应，门派壮大轻而易举。</t>
   </si>
   <si>
     <t>此人为武神转世，一旦开窍则天地惊、鬼神泣，当世无人是其敌手。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人资质较差，学习缓慢，但性格坚毅，假以时日，想来能在武道上一往无前。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人原为秀坊的宫女，精通绣艺，既可银针防身，亦可织锦营生。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人真气浑厚，有小十年之功，但这些真气实非同源，郁结纠缠，有走火入魔的风险。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人身体轻盈，修习轻功如鱼得水，同时也因此难以对敌人造成实质性的伤害。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人过度关注自己的容貌，为了不弄脏衣服，练就一身神奇的身法，举手投足不起烟尘。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人来路不明，武功全无，似乎是朝廷的暗子，祸藏异心，望少侠斟酌。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人为阳年阳月阳日出生的纯阳血脉，但有灵符护体，驱散炎气，增长功力。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人貌若天仙，身边总是会跟随一帮粉丝，但粉丝俨然有序，还有秘籍赠予门派。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人貌似潘安，身边总是会跟随一帮粉丝，但粉丝俨然有序，还有秘籍赠予门派。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人原为禁军，精通枪术，但囿于身份不能公开施展。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人家财万贯，虽然天赋平平，但可以为门派带来不小的收入。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人为情所困，郁郁寡欢，遂寄情武学，黯然掌、销魂腿均由其创出。</t>
+  </si>
+  <si>
+    <t>此人嗜枣，久而久之，练出一门口吐暗器的功夫，八百里开外镖无虚发。</t>
+  </si>
+  <si>
+    <t>此人骨骼精奇，是万中无一的武学奇才，少侠你捡到宝了！</t>
+  </si>
+  <si>
+    <t>此人经脉强韧，真气流动如江河奔流，修炼一日抵得百日之功。</t>
+  </si>
+  <si>
+    <t>此人幼时不小心摔通了任督二脉，真气周转，运拳行腿自有风生。</t>
   </si>
   <si>
     <t>此人机缘巧合得一身浑厚内力，只要稍加教导便能收放自如，成为高手。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人慈悲心肠，无论敌我都能感化，让其收起争斗之心，举手投足间有佛光隐现。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人嗜食佳肴，家中贫困不能灶火，只好练习内功加热，练成后想要施展就必须美食相伴。</t>
-  </si>
-  <si>
-    <t>此人为当朝公主，衷情于武学，若能将公主收入门中，天下第一大派指日可待。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人为觉醒的玄阴血脉，根骨天赋极佳，若遇上阳极的纯阳血脉，则可同化龙凤。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人貌若天仙，一颦一蹙，众生倾倒，不出手就能打倒一片敌人。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人貌若天仙，粉丝遍布神州，一呼百应，门派壮大轻而易举。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人骨骼精奇，是万中无一的武学奇才，少侠你捡到宝了！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人经脉强韧，真气流动如江河奔流，修炼一日抵得百日之功。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人家中经营饭庄，家丁时常会送来吃食，与门中众弟子同享，解决了门派的伙食问题。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>此人为觉醒的纯阳血脉，根骨天赋极佳，若遇上阴极的玄阴血脉，则可同化龙凤。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>此人貌似潘安，粉丝遍布神州，一呼百应，门派壮大轻而易举。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人苦心锻炼了三年，变秃了，也变强了，自此没有一拳解决不了的事情。</t>
   </si>
   <si>
     <t xml:space="preserve"> 此人为不世出的武学奇才，仅仅通过练习村中启蒙的健体操，练就了一身绝强内力。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人幼时不小心摔通了任督二脉，真气周转，运拳行腿自有风生。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人为情所困，郁郁寡欢，遂寄情武学，黯然掌、销魂腿均由其创出。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人嗜枣，久而久之，练出一门口吐暗器的功夫，八百里开外镖无虚发。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人在放羊时，自白猿身上学会了一身神妙剑术，稍加教导，剑可通神。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人苦心锻炼了三年，变秃了，也变强了，自此没有一拳解决不了的事情。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此人身怀麒麟血脉，额上生角，力大无比，举手投足迅雷猛击。</t>
   </si>
   <si>
     <t>此人天生力大无穷，动辄开碑裂石,一身横练功夫，刀枪不入，水火不侵。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人身怀麒麟血脉，额上生角，力大无比，举手投足迅雷猛击。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人身怀麒麟血脉，额上生角，有九龙九象之力，但难以自控，时常疯狂，荼毒山河。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人天生力大无穷，但身体过于强壮，行动极慢，难以抵挡矮小敌人的攻击。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此人心思粗耿，难以理解繁杂的武技变化，因此一直练习直拳，瞄准一点，登峰造极。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,31 +296,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -392,19 +319,155 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,12 +476,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -441,9 +690,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -453,30 +944,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -761,104 +1296,105 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45:B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="91.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.89090909090909" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.33636363636364" style="2" customWidth="1"/>
+    <col min="3" max="3" width="91.7818181818182" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -867,15 +1403,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -884,15 +1420,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -901,15 +1437,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -918,15 +1454,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -935,15 +1471,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <f>D5+1</f>
@@ -954,15 +1490,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11:D24" si="0">D6+1</f>
@@ -973,15 +1509,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
@@ -992,15 +1528,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
@@ -1011,15 +1547,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
@@ -1030,15 +1566,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
@@ -1049,15 +1585,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
@@ -1068,15 +1604,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
@@ -1087,15 +1623,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
@@ -1106,15 +1642,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
@@ -1125,15 +1661,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
@@ -1144,15 +1680,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
@@ -1163,15 +1699,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
@@ -1182,15 +1718,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
@@ -1201,15 +1737,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
@@ -1220,14 +1756,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="2">
@@ -1237,15 +1773,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>35</v>
+      <c r="B26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1254,15 +1790,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
+      <c r="B27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1271,15 +1807,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>38</v>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1288,15 +1824,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>44</v>
+      <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -1305,15 +1841,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>39</v>
+      <c r="B30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D30" s="2">
         <f>D25+1</f>
@@ -1324,15 +1860,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ref="D31:D44" si="2">D26+1</f>
@@ -1343,15 +1879,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>57</v>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="2"/>
@@ -1362,15 +1898,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>37</v>
+      <c r="B33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="2"/>
@@ -1381,15 +1917,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>27</v>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="2"/>
@@ -1400,15 +1936,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+    <row r="35" spans="1:5">
+      <c r="A35" s="5">
         <v>31</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>47</v>
+      <c r="B35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="2"/>
@@ -1419,15 +1955,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
         <v>32</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>70</v>
+      <c r="B36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="2"/>
@@ -1438,15 +1974,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+    <row r="37" spans="1:5">
+      <c r="A37" s="5">
         <v>33</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>43</v>
+      <c r="B37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="2"/>
@@ -1457,15 +1993,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+    <row r="38" spans="1:5">
+      <c r="A38" s="5">
         <v>34</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>45</v>
+      <c r="B38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="2"/>
@@ -1476,15 +2012,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="39" spans="1:5">
+      <c r="A39" s="5">
         <v>35</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>45</v>
+      <c r="B39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="2"/>
@@ -1495,15 +2031,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+    <row r="40" spans="1:5">
+      <c r="A40" s="5">
         <v>36</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>50</v>
+      <c r="B40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="2"/>
@@ -1514,15 +2050,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+    <row r="41" spans="1:5">
+      <c r="A41" s="5">
         <v>37</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>46</v>
+      <c r="B41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="2"/>
@@ -1533,14 +2069,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+    <row r="42" spans="1:5">
+      <c r="A42" s="5">
         <v>38</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="2">
@@ -1552,15 +2088,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+    <row r="43" spans="1:5">
+      <c r="A43" s="5">
         <v>39</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>68</v>
+      <c r="B43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="2"/>
@@ -1571,15 +2107,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+    <row r="44" spans="1:5">
+      <c r="A44" s="5">
         <v>40</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>69</v>
+      <c r="B44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="2"/>
@@ -1590,15 +2126,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+    <row r="45" spans="1:5">
+      <c r="A45" s="5">
         <v>41</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>51</v>
+      <c r="B45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -1607,16 +2143,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+    <row r="46" spans="1:5">
+      <c r="A46" s="5">
         <v>42</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="C46" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D46" s="2">
         <v>1</v>
       </c>
@@ -1624,15 +2160,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+    <row r="47" spans="1:5">
+      <c r="A47" s="5">
         <v>43</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>53</v>
+      <c r="B47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -1641,15 +2177,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+    <row r="48" spans="1:5">
+      <c r="A48" s="5">
         <v>44</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>64</v>
+      <c r="B48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -1658,15 +2194,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+    <row r="49" spans="1:5">
+      <c r="A49" s="5">
         <v>45</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>54</v>
+      <c r="B49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -1675,15 +2211,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>46</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>36</v>
+      <c r="B50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D50" s="2">
         <f>D45+1</f>
@@ -1694,15 +2230,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>47</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>62</v>
+      <c r="B51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" ref="D51:D64" si="4">D46+1</f>
@@ -1713,15 +2249,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>48</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>63</v>
+      <c r="B52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="4"/>
@@ -1732,15 +2268,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>49</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>55</v>
+      <c r="B53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="4"/>
@@ -1751,15 +2287,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>50</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>56</v>
+      <c r="B54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="4"/>
@@ -1770,15 +2306,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>51</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>61</v>
+      <c r="B55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="4"/>
@@ -1789,15 +2325,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>52</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>48</v>
+      <c r="B56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="4"/>
@@ -1808,15 +2344,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="2">
         <v>53</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>58</v>
+      <c r="B57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="4"/>
@@ -1827,15 +2363,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <v>54</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>59</v>
+      <c r="B58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="4"/>
@@ -1846,15 +2382,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="2">
         <v>55</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>59</v>
+      <c r="B59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" si="4"/>
@@ -1865,15 +2401,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
         <v>56</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>65</v>
+      <c r="B60" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="4"/>
@@ -1884,15 +2420,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <v>57</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>55</v>
+      <c r="B61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="4"/>
@@ -1903,15 +2439,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="2">
         <v>58</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>60</v>
+      <c r="B62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" si="4"/>
@@ -1922,15 +2458,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="2">
         <v>59</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>67</v>
+      <c r="B63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="4"/>
@@ -1941,15 +2477,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="2">
         <v>60</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>66</v>
+      <c r="B64" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="4"/>
@@ -1961,8 +2497,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Character/CharacterConfig.xlsx
+++ b/Tables/Sources/gameplay/Character/CharacterConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30250" windowHeight="11040"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <t>此人苦心锻炼了三年，变秃了，也变强了，自此没有一拳解决不了的事情。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 此人为不世出的武学奇才，仅仅通过练习村中启蒙的健体操，练就了一身绝强内力。</t>
+    <t>此人为不世出的武学奇才，仅仅通过练习村中启蒙的健体操，练就了一身绝强内力。</t>
   </si>
   <si>
     <t>此人身怀麒麟血脉，额上生角，力大无比，举手投足迅雷猛击。</t>
@@ -276,11 +276,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,20 +294,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -324,16 +310,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,16 +332,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,16 +355,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,38 +393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,7 +424,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,187 +468,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,26 +677,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,17 +716,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,24 +751,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -788,16 +759,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,137 +792,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -944,16 +930,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1305,20 +1288,20 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45:B64"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.89090909090909" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.33636363636364" style="2" customWidth="1"/>
-    <col min="3" max="3" width="91.7818181818182" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.89166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.33333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="91.7833333333333" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1345,14 +1328,14 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1369,7 +1352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1379,10 +1362,10 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1393,7 +1376,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2">
@@ -1410,7 +1393,7 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2">
@@ -1427,7 +1410,7 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2">
@@ -1444,7 +1427,7 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2">
@@ -1461,7 +1444,7 @@
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2">
@@ -1478,7 +1461,7 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2">
@@ -1497,7 +1480,7 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2">
@@ -1516,7 +1499,7 @@
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2">
@@ -1535,7 +1518,7 @@
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2">
@@ -1554,7 +1537,7 @@
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2">
@@ -1573,7 +1556,7 @@
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2">
@@ -1592,7 +1575,7 @@
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="2">
@@ -1611,7 +1594,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2">
@@ -1630,7 +1613,7 @@
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="2">
@@ -1649,7 +1632,7 @@
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="2">
@@ -1668,7 +1651,7 @@
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2">
@@ -1687,7 +1670,7 @@
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="2">
@@ -1706,7 +1689,7 @@
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2">
@@ -1725,7 +1708,7 @@
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="2">
@@ -1744,7 +1727,7 @@
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="2">
@@ -1760,10 +1743,10 @@
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="2">
@@ -1777,10 +1760,10 @@
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="2">
@@ -1794,10 +1777,10 @@
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="2">
@@ -1811,10 +1794,10 @@
       <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="2">
@@ -1828,10 +1811,10 @@
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="2">
@@ -1845,10 +1828,10 @@
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="2">
@@ -1864,10 +1847,10 @@
       <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="2">
@@ -1883,10 +1866,10 @@
       <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="2">
@@ -1902,10 +1885,10 @@
       <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="2">
@@ -1921,10 +1904,10 @@
       <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="2">
@@ -1937,13 +1920,13 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="2">
@@ -1956,13 +1939,13 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>32</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="2">
@@ -1975,13 +1958,13 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="2">
@@ -1994,13 +1977,13 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="2">
@@ -2013,13 +1996,13 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="2">
@@ -2032,13 +2015,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="2">
@@ -2051,13 +2034,13 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="2">
@@ -2070,13 +2053,13 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="2">
@@ -2089,13 +2072,13 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D43" s="2">
@@ -2108,13 +2091,13 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="2">
@@ -2127,13 +2110,13 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="2">
@@ -2144,13 +2127,13 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D46" s="2">
@@ -2161,13 +2144,13 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>43</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="2">
@@ -2178,13 +2161,13 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="2">
@@ -2195,13 +2178,13 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="2">
@@ -2215,10 +2198,10 @@
       <c r="A50" s="2">
         <v>46</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="2">
@@ -2234,10 +2217,10 @@
       <c r="A51" s="2">
         <v>47</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="2">
@@ -2253,10 +2236,10 @@
       <c r="A52" s="2">
         <v>48</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="2">
@@ -2272,10 +2255,10 @@
       <c r="A53" s="2">
         <v>49</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="2">
@@ -2291,10 +2274,10 @@
       <c r="A54" s="2">
         <v>50</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D54" s="2">
@@ -2310,10 +2293,10 @@
       <c r="A55" s="2">
         <v>51</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D55" s="2">
@@ -2329,10 +2312,10 @@
       <c r="A56" s="2">
         <v>52</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D56" s="2">
@@ -2348,10 +2331,10 @@
       <c r="A57" s="2">
         <v>53</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D57" s="2">
@@ -2367,10 +2350,10 @@
       <c r="A58" s="2">
         <v>54</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D58" s="2">
@@ -2386,10 +2369,10 @@
       <c r="A59" s="2">
         <v>55</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="2">
@@ -2405,10 +2388,10 @@
       <c r="A60" s="2">
         <v>56</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="2">
@@ -2424,10 +2407,10 @@
       <c r="A61" s="2">
         <v>57</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D61" s="2">
@@ -2443,10 +2426,10 @@
       <c r="A62" s="2">
         <v>58</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D62" s="2">
@@ -2462,10 +2445,10 @@
       <c r="A63" s="2">
         <v>59</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D63" s="2">
@@ -2481,10 +2464,10 @@
       <c r="A64" s="2">
         <v>60</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D64" s="2">
